--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H2">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I2">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J2">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>9.478531415858889</v>
+        <v>26.05755684987</v>
       </c>
       <c r="R2">
-        <v>85.30678274273001</v>
+        <v>234.51801164883</v>
       </c>
       <c r="S2">
-        <v>0.003879084398217764</v>
+        <v>0.02265681491117625</v>
       </c>
       <c r="T2">
-        <v>0.003879084398217763</v>
+        <v>0.02265681491117625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H3">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I3">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J3">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>13.17626279610444</v>
+        <v>22.984623431172</v>
       </c>
       <c r="R3">
-        <v>118.58636516494</v>
+        <v>206.861610880548</v>
       </c>
       <c r="S3">
-        <v>0.005392379177397542</v>
+        <v>0.01998492651799575</v>
       </c>
       <c r="T3">
-        <v>0.005392379177397541</v>
+        <v>0.01998492651799575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H4">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I4">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J4">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>30.853206371575</v>
+        <v>7.884582929027999</v>
       </c>
       <c r="R4">
-        <v>277.678857344175</v>
+        <v>70.96124636125199</v>
       </c>
       <c r="S4">
-        <v>0.01262665978726669</v>
+        <v>0.006855575029694255</v>
       </c>
       <c r="T4">
-        <v>0.01262665978726669</v>
+        <v>0.006855575029694256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H5">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I5">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J5">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>1.343677825112222</v>
+        <v>1.567237737429</v>
       </c>
       <c r="R5">
-        <v>12.09310042601</v>
+        <v>14.105139636861</v>
       </c>
       <c r="S5">
-        <v>0.0005498995001380914</v>
+        <v>0.001362699332992787</v>
       </c>
       <c r="T5">
-        <v>0.0005498995001380912</v>
+        <v>0.001362699332992788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H6">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I6">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J6">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>2.308629516698333</v>
+        <v>4.166643710268</v>
       </c>
       <c r="R6">
-        <v>20.777665650285</v>
+        <v>37.49979339241199</v>
       </c>
       <c r="S6">
-        <v>0.0009448055132787718</v>
+        <v>0.003622859805631767</v>
       </c>
       <c r="T6">
-        <v>0.0009448055132787714</v>
+        <v>0.003622859805631767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H7">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I7">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J7">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>43.10696538542445</v>
+        <v>21.235190606487</v>
       </c>
       <c r="R7">
-        <v>387.96268846882</v>
+        <v>191.116715458383</v>
       </c>
       <c r="S7">
-        <v>0.01764150473788993</v>
+        <v>0.01846381017018196</v>
       </c>
       <c r="T7">
-        <v>0.01764150473788993</v>
+        <v>0.01846381017018196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>229.881485</v>
       </c>
       <c r="I8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>198.7349447668989</v>
+        <v>313.1999858472723</v>
       </c>
       <c r="R8">
-        <v>1788.61450290209</v>
+        <v>2818.79987262545</v>
       </c>
       <c r="S8">
-        <v>0.08133218003963234</v>
+        <v>0.2723246139463021</v>
       </c>
       <c r="T8">
-        <v>0.08133218003963233</v>
+        <v>0.2723246139463021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>229.881485</v>
       </c>
       <c r="I9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>276.2647233132244</v>
@@ -1013,10 +1013,10 @@
         <v>2486.38250981902</v>
       </c>
       <c r="S9">
-        <v>0.1130612044170947</v>
+        <v>0.2402097302773906</v>
       </c>
       <c r="T9">
-        <v>0.1130612044170947</v>
+        <v>0.2402097302773906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>229.881485</v>
       </c>
       <c r="I10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>646.894544641975</v>
+        <v>94.76910195421999</v>
       </c>
       <c r="R10">
-        <v>5822.050901777775</v>
+        <v>852.92191758798</v>
       </c>
       <c r="S10">
-        <v>0.2647412795630309</v>
+        <v>0.08240089485925331</v>
       </c>
       <c r="T10">
-        <v>0.2647412795630309</v>
+        <v>0.08240089485925331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>229.881485</v>
       </c>
       <c r="I11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>28.17269117359222</v>
+        <v>18.83748503400167</v>
       </c>
       <c r="R11">
-        <v>253.55422056233</v>
+        <v>169.537365306015</v>
       </c>
       <c r="S11">
-        <v>0.01152966023876244</v>
+        <v>0.01637902640936031</v>
       </c>
       <c r="T11">
-        <v>0.01152966023876244</v>
+        <v>0.01637902640936031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>229.881485</v>
       </c>
       <c r="I12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>48.40468838037833</v>
+        <v>50.08116296570889</v>
       </c>
       <c r="R12">
-        <v>435.642195423405</v>
+        <v>450.7304666913799</v>
       </c>
       <c r="S12">
-        <v>0.01980959531164923</v>
+        <v>0.04354512767209723</v>
       </c>
       <c r="T12">
-        <v>0.01980959531164923</v>
+        <v>0.04354512767209723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>229.881485</v>
       </c>
       <c r="I13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>903.8172696887844</v>
+        <v>255.2373361683383</v>
       </c>
       <c r="R13">
-        <v>8134.35542719906</v>
+        <v>2297.136025515045</v>
       </c>
       <c r="S13">
-        <v>0.3698867805431912</v>
+        <v>0.2219266033767307</v>
       </c>
       <c r="T13">
-        <v>0.3698867805431912</v>
+        <v>0.2219266033767307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>0.029252</v>
       </c>
       <c r="I14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>0.02528865952088889</v>
+        <v>0.03985412738222222</v>
       </c>
       <c r="R14">
-        <v>0.227597935688</v>
+        <v>0.35868714644</v>
       </c>
       <c r="S14">
-        <v>1.034937167958231E-05</v>
+        <v>3.465281080447706E-05</v>
       </c>
       <c r="T14">
-        <v>1.034937167958231E-05</v>
+        <v>3.465281080447706E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.029252</v>
       </c>
       <c r="I15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
         <v>0.03515418254044444</v>
@@ -1385,10 +1385,10 @@
         <v>0.316387642864</v>
       </c>
       <c r="S15">
-        <v>1.438683220446768E-05</v>
+        <v>3.056625038799549E-05</v>
       </c>
       <c r="T15">
-        <v>1.438683220446768E-05</v>
+        <v>3.056625038799549E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.029252</v>
       </c>
       <c r="I16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>0.08231615181999999</v>
+        <v>0.012059195504</v>
       </c>
       <c r="R16">
-        <v>0.74084536638</v>
+        <v>0.108532759536</v>
       </c>
       <c r="S16">
-        <v>3.368784532507166E-05</v>
+        <v>1.048536369261264E-05</v>
       </c>
       <c r="T16">
-        <v>3.368784532507165E-05</v>
+        <v>1.048536369261264E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.029252</v>
       </c>
       <c r="I17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>0.003584923606222222</v>
+        <v>0.002397035638666666</v>
       </c>
       <c r="R17">
-        <v>0.032264312456</v>
+        <v>0.021573320748</v>
       </c>
       <c r="S17">
-        <v>1.467128252213435E-06</v>
+        <v>2.084201259299363E-06</v>
       </c>
       <c r="T17">
-        <v>1.467128252213434E-06</v>
+        <v>2.084201259299364E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.029252</v>
       </c>
       <c r="I18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>0.006159408377333333</v>
+        <v>0.006372736712888889</v>
       </c>
       <c r="R18">
-        <v>0.05543467539599999</v>
+        <v>0.057354630416</v>
       </c>
       <c r="S18">
-        <v>2.520734899795708E-06</v>
+        <v>5.541038133907078E-06</v>
       </c>
       <c r="T18">
-        <v>2.520734899795707E-06</v>
+        <v>5.541038133907078E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.029252</v>
       </c>
       <c r="I19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>0.1150091003324444</v>
+        <v>0.03247848584933333</v>
       </c>
       <c r="R19">
-        <v>1.035081902992</v>
+        <v>0.292306372644</v>
       </c>
       <c r="S19">
-        <v>4.706741869380837E-05</v>
+        <v>2.82397558114614E-05</v>
       </c>
       <c r="T19">
-        <v>4.706741869380837E-05</v>
+        <v>2.82397558114614E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H20">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I20">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J20">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>22.376420360638</v>
+        <v>17.74838956009778</v>
       </c>
       <c r="R20">
-        <v>201.387783245742</v>
+        <v>159.73550604088</v>
       </c>
       <c r="S20">
-        <v>0.009157539211579208</v>
+        <v>0.01543206754000018</v>
       </c>
       <c r="T20">
-        <v>0.009157539211579207</v>
+        <v>0.01543206754000018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H21">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I21">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J21">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>31.105830868964</v>
+        <v>15.65534531494755</v>
       </c>
       <c r="R21">
-        <v>279.952477820676</v>
+        <v>140.898107834528</v>
       </c>
       <c r="S21">
-        <v>0.01273004624065647</v>
+        <v>0.01361218410516819</v>
       </c>
       <c r="T21">
-        <v>0.01273004624065647</v>
+        <v>0.01361218410516819</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H22">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I22">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J22">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>72.836633119005</v>
+        <v>5.370367227808</v>
       </c>
       <c r="R22">
-        <v>655.529698071045</v>
+        <v>48.333305050272</v>
       </c>
       <c r="S22">
-        <v>0.02980835688088938</v>
+        <v>0.00466948674376967</v>
       </c>
       <c r="T22">
-        <v>0.02980835688088938</v>
+        <v>0.004669486743769671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H23">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I23">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J23">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>3.172084210606</v>
+        <v>1.067480963677333</v>
       </c>
       <c r="R23">
-        <v>28.548757895454</v>
+        <v>9.607328673096001</v>
       </c>
       <c r="S23">
-        <v>0.001298173929202476</v>
+        <v>0.0009281652441396115</v>
       </c>
       <c r="T23">
-        <v>0.001298173929202476</v>
+        <v>0.0009281652441396117</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H24">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I24">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J24">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>5.450091607671</v>
+        <v>2.837994987559111</v>
       </c>
       <c r="R24">
-        <v>49.050824469039</v>
+        <v>25.541954888032</v>
       </c>
       <c r="S24">
-        <v>0.002230447354829856</v>
+        <v>0.002467611507956607</v>
       </c>
       <c r="T24">
-        <v>0.002230447354829855</v>
+        <v>0.002467611507956607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H25">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I25">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J25">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>101.764665391292</v>
+        <v>14.46376716889867</v>
       </c>
       <c r="R25">
-        <v>915.881988521628</v>
+        <v>130.173904520088</v>
       </c>
       <c r="S25">
-        <v>0.0416471400990173</v>
+        <v>0.01257611745998051</v>
       </c>
       <c r="T25">
-        <v>0.04164714009901729</v>
+        <v>0.01257611745998051</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H26">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>0.1690282175873333</v>
+        <v>0.1460373378177778</v>
       </c>
       <c r="R26">
-        <v>1.521253958286</v>
+        <v>1.31433604036</v>
       </c>
       <c r="S26">
-        <v>6.91747163072697E-05</v>
+        <v>0.0001269781719031276</v>
       </c>
       <c r="T26">
-        <v>6.91747163072697E-05</v>
+        <v>0.0001269781719031275</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H27">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>0.2349689120786666</v>
+        <v>0.1288153465795556</v>
       </c>
       <c r="R27">
-        <v>2.114720208708</v>
+        <v>1.159338119216</v>
       </c>
       <c r="S27">
-        <v>9.616091363959103E-05</v>
+        <v>0.0001120038030421326</v>
       </c>
       <c r="T27">
-        <v>9.616091363959103E-05</v>
+        <v>0.0001120038030421325</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H28">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>0.550197309165</v>
+        <v>0.044188467376</v>
       </c>
       <c r="R28">
-        <v>4.951775782485</v>
+        <v>0.3976962063840001</v>
       </c>
       <c r="S28">
-        <v>0.0002251679827058897</v>
+        <v>3.842148104347614E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002251679827058897</v>
+        <v>3.842148104347614E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H29">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>0.02396146173133333</v>
+        <v>0.008783449201333334</v>
       </c>
       <c r="R29">
-        <v>0.215653155582</v>
+        <v>0.07905104281200001</v>
       </c>
       <c r="S29">
-        <v>9.806216626026203E-06</v>
+        <v>7.637131292963907E-06</v>
       </c>
       <c r="T29">
-        <v>9.806216626026201E-06</v>
+        <v>7.637131292963907E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H30">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>0.041169197543</v>
+        <v>0.02335159656711111</v>
       </c>
       <c r="R30">
-        <v>0.370522777887</v>
+        <v>0.210164369104</v>
       </c>
       <c r="S30">
-        <v>1.684847418546277E-05</v>
+        <v>2.030400640972351E-05</v>
       </c>
       <c r="T30">
-        <v>1.684847418546276E-05</v>
+        <v>2.03040064097235E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H31">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>0.7687154481026666</v>
+        <v>0.1190108006706667</v>
       </c>
       <c r="R31">
-        <v>6.918439032924</v>
+        <v>1.071097206036</v>
       </c>
       <c r="S31">
-        <v>0.000314596425392955</v>
+        <v>0.0001034788372049407</v>
       </c>
       <c r="T31">
-        <v>0.000314596425392955</v>
+        <v>0.0001034788372049407</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H32">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I32">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J32">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>0.2060500128602222</v>
+        <v>0.02189442865555556</v>
       </c>
       <c r="R32">
-        <v>1.854450115742</v>
+        <v>0.1970498579</v>
       </c>
       <c r="S32">
-        <v>8.432586811933155E-05</v>
+        <v>1.903701181553215E-05</v>
       </c>
       <c r="T32">
-        <v>8.432586811933152E-05</v>
+        <v>1.903701181553215E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H33">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I33">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J33">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>0.2864335200751111</v>
+        <v>0.01931244747111111</v>
       </c>
       <c r="R33">
-        <v>2.577901680676</v>
+        <v>0.17381202724</v>
       </c>
       <c r="S33">
-        <v>0.000117222779574369</v>
+        <v>1.679200204208559E-05</v>
       </c>
       <c r="T33">
-        <v>0.000117222779574369</v>
+        <v>1.679200204208559E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H34">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I34">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J34">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>0.6707055440049999</v>
+        <v>0.00662488964</v>
       </c>
       <c r="R34">
-        <v>6.036349896045</v>
+        <v>0.05962400676000001</v>
       </c>
       <c r="S34">
-        <v>0.000274485919537589</v>
+        <v>5.760282870924557E-06</v>
       </c>
       <c r="T34">
-        <v>0.000274485919537589</v>
+        <v>5.760282870924558E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H35">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I35">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J35">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>0.02920967616155556</v>
+        <v>0.001316845436666667</v>
       </c>
       <c r="R35">
-        <v>0.262887085454</v>
+        <v>0.01185160893</v>
       </c>
       <c r="S35">
-        <v>1.195404584361092E-05</v>
+        <v>1.144985444993189E-06</v>
       </c>
       <c r="T35">
-        <v>1.195404584361092E-05</v>
+        <v>1.14498544499319E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H36">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I36">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J36">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>0.05018637600433333</v>
+        <v>0.003500953062222222</v>
       </c>
       <c r="R36">
-        <v>0.451677384039</v>
+        <v>0.03150857756</v>
       </c>
       <c r="S36">
-        <v>2.05387501101466E-05</v>
+        <v>3.044047682616121E-06</v>
       </c>
       <c r="T36">
-        <v>2.05387501101466E-05</v>
+        <v>3.044047682616121E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H37">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I37">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J37">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>0.937085122403111</v>
+        <v>0.01784251564333333</v>
       </c>
       <c r="R37">
-        <v>8.433766101628001</v>
+        <v>0.16058264079</v>
       </c>
       <c r="S37">
-        <v>0.0003835016331785303</v>
+        <v>1.551390933577823E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003835016331785303</v>
+        <v>1.551390933577823E-05</v>
       </c>
     </row>
   </sheetData>
